--- a/recursos/data/preguntas_mini.xlsx
+++ b/recursos/data/preguntas_mini.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obscu\OneDrive\Desktop\Universidad\Proyectos propios\Python\Ideas\Kivy\Cuestionario\recursos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obscu\OneDrive\Desktop\Universidad\Proyectos propios\Python\Ideas\Kivy\Cuestionario_app\recursos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909EDF5-9FE5-49AD-AF2C-FA5EF056E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E79E9F-01C4-4356-A491-9F672996242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{296E5580-BC6E-4E87-962E-3EDD61B8974E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{296E5580-BC6E-4E87-962E-3EDD61B8974E}"/>
   </bookViews>
   <sheets>
     <sheet name="Reordenado sin imagenes" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="391">
   <si>
     <t>Tema</t>
   </si>
@@ -1214,13 +1215,46 @@
   </si>
   <si>
     <t>C - Las zonas vulnerables, vías de evacuación y punto de encuentro de donde estes</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Pregunta_1</t>
+  </si>
+  <si>
+    <t>Pregunta_2</t>
+  </si>
+  <si>
+    <t>Pregunta_3</t>
+  </si>
+  <si>
+    <t>Pregunta_4</t>
+  </si>
+  <si>
+    <t>B - Respuesta Correcta</t>
+  </si>
+  <si>
+    <t>A - Respuesta Correcta</t>
+  </si>
+  <si>
+    <t>B - Respuesta Incorrecta</t>
+  </si>
+  <si>
+    <t>C - Respuesta Correcta</t>
+  </si>
+  <si>
+    <t>A - Respuesta Incorrecta</t>
+  </si>
+  <si>
+    <t>C - Respuesta Incorrecta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,8 +1310,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1373,11 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1342,10 +1388,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,8 +1446,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1715,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06A39C7-BCA7-4EB9-B931-647C417583A8}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,4 +3713,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9300A71-A7ED-4BA5-9E38-F807E82CD5BB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>